--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29792762-0522-6C47-AB4A-E484116EB025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37860E1-E3CF-E540-86E1-2EDF6C30BA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="2" r:id="rId1"/>
@@ -20,8 +20,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$C$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">queries_orig!$A$1:$C$152</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="j/Wa+HJ7/D0TgBlh36dMnSfmGbKzn1NkZfay7McF/bE="/>
     </ext>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="250">
   <si>
     <t>db_id</t>
   </si>
@@ -668,81 +679,24 @@
     <t>SELECT homepage FROM academic_journal WHERE name  =  'PVLDB';</t>
   </si>
   <si>
-    <t>SELECT area FROM usa_state WHERE state_name  =  'new mexico';</t>
-  </si>
-  <si>
     <t>SELECT city_name FROM usa_city WHERE state_name  =  'texas';</t>
   </si>
   <si>
-    <t>SELECT area FROM usa_state WHERE capital  =  'albany';</t>
-  </si>
-  <si>
     <t>SELECT state_name FROM usa_state;</t>
   </si>
   <si>
-    <t>SELECT lowest_elevation FROM usa_highlow WHERE state_name  =  'pennsylvania';</t>
-  </si>
-  <si>
-    <t>SELECT highest_point  ,  state_name FROM usa_highlow WHERE lowest_elevation  =  0;</t>
-  </si>
-  <si>
-    <t>SELECT LENGTH FROM usa_river WHERE LENGTH  =  ( SELECT MAX ( LENGTH ) FROM usa_river );</t>
-  </si>
-  <si>
-    <t>SELECT river_name FROM usa_river WHERE LENGTH  =  ( SELECT MAX ( LENGTH ) FROM usa_river WHERE traverse  =  'texas' ) AND traverse  =  'texas';</t>
-  </si>
-  <si>
     <t>SELECT border FROM usa_border_info WHERE state_name  =  'kentucky';</t>
   </si>
   <si>
-    <t>SELECT river_name FROM usa_river WHERE LENGTH  =  ( SELECT MAX ( LENGTH ) FROM usa_river );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_state WHERE area  =  ( SELECT MAX ( area ) FROM usa_state );</t>
-  </si>
-  <si>
-    <t>SELECT MAX ( highest_elevation ) FROM usa_highlow;</t>
-  </si>
-  <si>
     <t>SELECT COUNT ( state_name ) FROM usa_state;</t>
   </si>
   <si>
     <t>SELECT capital FROM usa_state WHERE state_name  =  'texas';</t>
   </si>
   <si>
-    <t>SELECT t2.capital FROM usa_state AS t2 JOIN border_info AS t1 ON t2.state_name  =  t1.border WHERE t1.state_name  =  'texas';</t>
-  </si>
-  <si>
-    <t>SELECT capital FROM usa_state WHERE area  =  ( SELECT MIN ( area ) FROM usa_state );</t>
-  </si>
-  <si>
-    <t>SELECT SUM ( area ) FROM usa_state;</t>
-  </si>
-  <si>
-    <t>SELECT mountain_name FROM usa_mountain WHERE mountain_altitude  =  ( SELECT MAX ( mountain_altitude ) FROM usa_mountain );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_state WHERE area  =  ( SELECT MAX ( area ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_state WHERE area  =  ( SELECT MIN ( area ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_state WHERE area  =  ( SELECT MIN ( area ) FROM usa_state WHERE state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' ) ) AND state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_state WHERE area  =  ( SELECT MIN ( area ) FROM usa_state );</t>
-  </si>
-  <si>
     <t>SELECT border FROM usa_border_info WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'colorado' );</t>
   </si>
   <si>
-    <t>SELECT state_name FROM usa_highlow WHERE highest_elevation  =  ( SELECT MAX ( highest_elevation ) FROM usa_highlow );</t>
-  </si>
-  <si>
-    <t>SELECT state_name FROM usa_highlow WHERE lowest_elevation  =  ( SELECT MIN ( lowest_elevation ) FROM usa_highlow );</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT capital FROM usa_state;</t>
   </si>
   <si>
@@ -752,31 +706,91 @@
     <t>SELECT COUNT ( border ) FROM usa_border_info WHERE border IN ( SELECT border FROM usa_border_info WHERE state_name  =  'new mexico' ) AND state_name  =  'colorado';</t>
   </si>
   <si>
-    <t>SELECT mountain_altitude FROM usa_mountain WHERE mountain_name  =  'mckinley';</t>
-  </si>
-  <si>
-    <t>SELECT area FROM usa_state WHERE area  =  ( SELECT MIN ( area ) FROM usa_state );</t>
-  </si>
-  <si>
-    <t>SELECT MAX ( area ) FROM usa_state;</t>
-  </si>
-  <si>
     <t>SELECT country_name FROM usa_state WHERE state_name  =  'massachusetts';</t>
   </si>
   <si>
-    <t>SELECT lowest_elevation FROM usa_highlow WHERE lowest_point  =  'death valley';</t>
-  </si>
-  <si>
     <t>SELECT state_name FROM usa_state WHERE state_name NOT IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' );</t>
   </si>
   <si>
-    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.lowest_elevation  =  ( SELECT MIN ( lowest_elevation ) FROM usa_highlow ) ;</t>
-  </si>
-  <si>
-    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.highest_elevation  =  ( SELECT MAX ( highest_elevation ) FROM usa_highlow );</t>
-  </si>
-  <si>
-    <t>SELECT t2.highest_point FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t1.area  =  ( SELECT MIN ( area ) FROM usa_state );</t>
+    <t>SELECT area_squared_miles FROM usa_state WHERE state_name  =  'new mexico';</t>
+  </si>
+  <si>
+    <t>SELECT area_squared_miles FROM usa_state WHERE capital  =  'albany';</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MAX ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT capital FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT SUM ( area_squared_miles ) FROM usa_state;</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' );</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' ) ) AND state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' );</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT area_squared_miles FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT MAX ( area_squared_miles ) FROM usa_state;</t>
+  </si>
+  <si>
+    <t>SELECT lowest_elevation_in_meters FROM usa_highlow WHERE state_name  =  'pennsylvania';</t>
+  </si>
+  <si>
+    <t>SELECT highest_point  ,  state_name FROM usa_highlow WHERE lowest_elevation_in_meters  =  0;</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_highlow WHERE lowest_elevation_in_meters  =  ( SELECT MIN ( lowest_elevation_in_meters ) FROM usa_highlow );</t>
+  </si>
+  <si>
+    <t>SELECT lowest_elevation_in_meters FROM usa_highlow WHERE lowest_point  =  'death valley';</t>
+  </si>
+  <si>
+    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.lowest_elevation_in_meters  =  ( SELECT MIN ( lowest_elevation_in_meters ) FROM usa_highlow ) ;</t>
+  </si>
+  <si>
+    <t>SELECT river_name FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river WHERE traverse  =  'texas' ) AND traverse  =  'texas';</t>
+  </si>
+  <si>
+    <t>SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow;</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_highlow WHERE highest_elevation_in_meters  =  ( SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow );</t>
+  </si>
+  <si>
+    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.highest_elevation_in_meters  =  ( SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow );</t>
+  </si>
+  <si>
+    <t>SELECT mountain_name FROM usa_mountain WHERE mountain_altitude_in_meters  =  ( SELECT MAX ( mountain_altitude_in_meters ) FROM usa_mountain );</t>
+  </si>
+  <si>
+    <t>SELECT mountain_altitude_in_meters FROM usa_mountain WHERE mountain_name  =  'mckinley';</t>
+  </si>
+  <si>
+    <t>SELECT t2.highest_point FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t1.area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT length_in_km FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river );</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT river_name FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river );</t>
+  </si>
+  <si>
+    <t>how many square miles in the us</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE SELECT SUM ( area_squared_miles ) FROM usa_state  =  ( SELECT MAX ( SELECT SUM ( area_squared_miles ) FROM usa_state; ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' );</t>
+  </si>
+  <si>
+    <t>SELECT t2.capital FROM usa_state AS t2 JOIN usa_border_info AS t1 ON t2.state_name  =  t1.border WHERE t1.state_name  =  'texas';</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B129"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1093,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="87.1640625" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="24" width="10.6640625" customWidth="1"/>
+    <col min="4" max="23" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1142,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1153,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1164,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1175,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1186,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1197,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -1208,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1219,7 +1233,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
@@ -1230,7 +1244,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -1241,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
@@ -1252,7 +1266,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>22</v>
@@ -1263,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -1274,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
@@ -1285,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -1296,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
@@ -1307,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -1318,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -1329,7 +1343,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -1340,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1351,7 +1365,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -1362,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -1373,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>36</v>
@@ -1384,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>37</v>
@@ -1395,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -1406,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -1417,7 +1431,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>40</v>
@@ -1428,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>41</v>
@@ -1439,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>42</v>
@@ -1450,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -1461,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>44</v>
@@ -1472,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>45</v>
@@ -1483,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>46</v>
@@ -1494,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>47</v>
@@ -1505,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>48</v>
@@ -1516,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>49</v>
@@ -1527,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>50</v>
@@ -1538,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>51</v>
@@ -1549,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>52</v>
@@ -1560,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -1571,7 +1585,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>55</v>
@@ -1582,7 +1596,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -1593,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -1604,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -1615,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -1626,7 +1640,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>60</v>
@@ -1637,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>61</v>
@@ -1648,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>63</v>
@@ -1659,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>64</v>
@@ -1670,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>65</v>
@@ -1681,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
@@ -1692,7 +1706,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
@@ -1703,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>68</v>
@@ -1714,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>69</v>
@@ -1725,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>70</v>
@@ -1736,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>71</v>
@@ -1747,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>72</v>
@@ -1758,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
@@ -1769,7 +1783,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>75</v>
@@ -1780,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>76</v>
@@ -1791,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -1802,7 +1816,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
@@ -1813,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>80</v>
@@ -1824,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
@@ -1835,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>82</v>
@@ -1846,7 +1860,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>83</v>
@@ -1857,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>84</v>
@@ -1868,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>85</v>
@@ -1879,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>86</v>
@@ -1890,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>87</v>
@@ -1901,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>88</v>
@@ -1912,7 +1926,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>89</v>
@@ -1923,7 +1937,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>90</v>
@@ -1934,7 +1948,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>91</v>
@@ -1945,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
@@ -1956,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
@@ -1967,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
@@ -1978,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
@@ -1989,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>97</v>
@@ -2000,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>99</v>
@@ -2011,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>100</v>
@@ -2022,10 +2036,10 @@
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,7 +2047,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>102</v>
@@ -2044,7 +2058,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>104</v>
@@ -2055,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>105</v>
@@ -2066,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>106</v>
@@ -2077,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>107</v>
@@ -2088,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>108</v>
@@ -2099,7 +2113,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>109</v>
@@ -2110,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>110</v>
@@ -2121,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>111</v>
@@ -2132,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>112</v>
@@ -2143,7 +2157,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>113</v>
@@ -2154,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>115</v>
@@ -2165,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>116</v>
@@ -2176,7 +2190,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>117</v>
@@ -2187,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>118</v>
@@ -2198,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>119</v>
@@ -2209,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>120</v>
@@ -2220,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>121</v>
@@ -2231,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>123</v>
@@ -2242,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>124</v>
@@ -2253,7 +2267,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>125</v>
@@ -2264,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>126</v>
@@ -2275,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>127</v>
@@ -2286,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>128</v>
@@ -2297,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>129</v>
@@ -2308,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>130</v>
@@ -2319,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>132</v>
@@ -2330,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>133</v>
@@ -2341,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>134</v>
@@ -2352,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>136</v>
@@ -2363,7 +2377,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>137</v>
@@ -2374,7 +2388,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>138</v>
@@ -2385,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>139</v>
@@ -2396,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>141</v>
@@ -2407,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>143</v>
@@ -2418,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>144</v>
@@ -2429,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>145</v>
@@ -2440,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>146</v>
@@ -2451,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>147</v>
@@ -2462,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>149</v>
@@ -2473,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>151</v>
@@ -2484,7 +2498,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>152</v>
@@ -2495,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>154</v>

--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37860E1-E3CF-E540-86E1-2EDF6C30BA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14F160-D66A-7340-A0C8-228E45E623AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="254">
   <si>
     <t>db_id</t>
   </si>
@@ -754,9 +754,6 @@
     <t>SELECT lowest_elevation_in_meters FROM usa_highlow WHERE lowest_point  =  'death valley';</t>
   </si>
   <si>
-    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.lowest_elevation_in_meters  =  ( SELECT MIN ( lowest_elevation_in_meters ) FROM usa_highlow ) ;</t>
-  </si>
-  <si>
     <t>SELECT river_name FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river WHERE traverse  =  'texas' ) AND traverse  =  'texas';</t>
   </si>
   <si>
@@ -766,18 +763,12 @@
     <t>SELECT state_name FROM usa_highlow WHERE highest_elevation_in_meters  =  ( SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow );</t>
   </si>
   <si>
-    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.highest_elevation_in_meters  =  ( SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow );</t>
-  </si>
-  <si>
     <t>SELECT mountain_name FROM usa_mountain WHERE mountain_altitude_in_meters  =  ( SELECT MAX ( mountain_altitude_in_meters ) FROM usa_mountain );</t>
   </si>
   <si>
     <t>SELECT mountain_altitude_in_meters FROM usa_mountain WHERE mountain_name  =  'mckinley';</t>
   </si>
   <si>
-    <t>SELECT t2.highest_point FROM usa_highlow AS t2 JOIN state AS t1 ON t1.state_name  =  t2.state_name WHERE t1.area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT length_in_km FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river );</t>
   </si>
   <si>
@@ -791,6 +782,27 @@
   </si>
   <si>
     <t>SELECT t2.capital FROM usa_state AS t2 JOIN usa_border_info AS t1 ON t2.state_name  =  t1.border WHERE t1.state_name  =  'texas';</t>
+  </si>
+  <si>
+    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN usa_state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.lowest_elevation_in_meters  =  ( SELECT MIN ( lowest_elevation_in_meters ) FROM usa_highlow ) ;</t>
+  </si>
+  <si>
+    <t>SELECT t1.capital FROM usa_highlow AS t2 JOIN usa_state AS t1 ON t1.state_name  =  t2.state_name WHERE t2.highest_elevation_in_meters  =  ( SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow );</t>
+  </si>
+  <si>
+    <t>SELECT t2.highest_point FROM usa_highlow AS t2 JOIN usa_state AS t1 ON t1.state_name  =  t2.state_name WHERE t1.area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
+  </si>
+  <si>
+    <t>SELECT t1.name FROM "cast" AS t2 JOIN actor AS t1 ON t2.aid  =  t1.aid JOIN movie AS t3 ON t3.mid  =  t2.msid WHERE t2.role  =  'Alan Turing' AND t3.title  =  'The Imitation Game';</t>
+  </si>
+  <si>
+    <t>SELECT t1.name FROM "cast" AS t3 JOIN actor AS t1 ON t3.aid  =  t1.aid JOIN tv_series AS t2 ON t2.sid  =  t3.msid WHERE t3.role  =  'Olivia Pope' AND t2.title  =  'Scandal';</t>
+  </si>
+  <si>
+    <t>SELECT t1.name FROM "cast" AS t2 JOIN actor AS t1 ON t2.aid  =  t1.aid WHERE t2.role  =  'Mr. Bean';</t>
+  </si>
+  <si>
+    <t>SELECT director FROM movie WHERE title  = 'Avatar'</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1123,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>253</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1343,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -1354,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1365,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -1376,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -1387,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>36</v>
@@ -1398,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>37</v>
@@ -1409,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -1420,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -1574,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -1585,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>55</v>
@@ -1596,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -1607,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -1618,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -1629,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -1640,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>60</v>
@@ -1651,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>61</v>
@@ -1783,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>75</v>
@@ -1794,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>76</v>
@@ -1805,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -1816,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
@@ -1959,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
@@ -1970,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
@@ -1981,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
@@ -1992,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
@@ -2039,7 +2051,7 @@
         <v>227</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2058,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>104</v>
@@ -2069,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>105</v>
@@ -2080,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>106</v>
@@ -2091,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>107</v>
@@ -2102,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>108</v>
@@ -2113,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>109</v>
@@ -2245,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>123</v>
@@ -2256,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>124</v>
@@ -2267,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>125</v>
@@ -2278,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>126</v>
@@ -2289,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>127</v>
@@ -2300,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>128</v>
@@ -2311,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>129</v>
@@ -2322,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>130</v>
@@ -2399,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>139</v>
@@ -2476,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>149</v>
@@ -2487,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>151</v>
@@ -2498,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>152</v>
@@ -2509,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>154</v>
@@ -2652,7 +2664,7 @@
         <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>169</v>
@@ -2663,7 +2675,7 @@
         <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>170</v>
@@ -2674,7 +2686,7 @@
         <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>171</v>
@@ -2685,7 +2697,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>172</v>
@@ -2696,7 +2708,7 @@
         <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>173</v>
@@ -2718,7 +2730,7 @@
         <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>175</v>
@@ -2751,7 +2763,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>178</v>

--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE14F160-D66A-7340-A0C8-228E45E623AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057030B-46CF-CD4D-A491-1E2E1132D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="2" r:id="rId1"/>
@@ -694,9 +694,6 @@
     <t>SELECT capital FROM usa_state WHERE state_name  =  'texas';</t>
   </si>
   <si>
-    <t>SELECT border FROM usa_border_info WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'colorado' );</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT capital FROM usa_state;</t>
   </si>
   <si>
@@ -730,9 +727,6 @@
     <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'texas' );</t>
   </si>
   <si>
-    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' ) ) AND state_name IN ( SELECT traverse FROM usa_river WHERE river_name  =  'mississippi' );</t>
-  </si>
-  <si>
     <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state );</t>
   </si>
   <si>
@@ -754,9 +748,6 @@
     <t>SELECT lowest_elevation_in_meters FROM usa_highlow WHERE lowest_point  =  'death valley';</t>
   </si>
   <si>
-    <t>SELECT river_name FROM usa_river WHERE length_in_km  =  ( SELECT MAX ( length_in_km ) FROM usa_river WHERE traverse  =  'texas' ) AND traverse  =  'texas';</t>
-  </si>
-  <si>
     <t>SELECT MAX ( highest_elevation_in_meters ) FROM usa_highlow;</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
     <t>how many square miles in the us</t>
   </si>
   <si>
-    <t>SELECT state_name FROM usa_state WHERE SELECT SUM ( area_squared_miles ) FROM usa_state  =  ( SELECT MAX ( SELECT SUM ( area_squared_miles ) FROM usa_state; ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' );</t>
-  </si>
-  <si>
     <t>SELECT t2.capital FROM usa_state AS t2 JOIN usa_border_info AS t1 ON t2.state_name  =  t1.border WHERE t1.state_name  =  'texas';</t>
   </si>
   <si>
@@ -803,6 +791,18 @@
   </si>
   <si>
     <t>SELECT director FROM movie WHERE title  = 'Avatar'</t>
+  </si>
+  <si>
+    <t>SELECT river_name FROM usa_river WHERE length_in_km = (SELECT MAX (length_in_km) FROM usa_river WHERE usa_state_traversed = 'texas') AND usa_state_traversed = 'texas';</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MAX ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' ) ) AND state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'california' );</t>
+  </si>
+  <si>
+    <t>SELECT state_name FROM usa_state WHERE area_squared_miles  =  ( SELECT MIN ( area_squared_miles ) FROM usa_state WHERE state_name IN ( SELECT usa_state_traversed  FROM usa_river WHERE river_name  =  'mississippi river'));</t>
+  </si>
+  <si>
+    <t>SELECT distinct border FROM usa_border_info WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'colorado' );</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1135,7 +1135,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -1179,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1212,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -1289,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>23</v>
@@ -1333,7 +1333,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -1344,7 +1344,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>30</v>
@@ -1355,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -1366,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1377,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>34</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>35</v>
@@ -1399,7 +1399,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>36</v>
@@ -1410,7 +1410,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>37</v>
@@ -1421,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -1432,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>39</v>
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -1597,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>55</v>
@@ -1608,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -1619,7 +1619,7 @@
         <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -1630,7 +1630,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -1641,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -1652,7 +1652,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>60</v>
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>61</v>
@@ -1674,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>63</v>
@@ -1685,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>64</v>
@@ -1696,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>65</v>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>66</v>
@@ -1718,7 +1718,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>67</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>68</v>
@@ -1740,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>69</v>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>70</v>
@@ -1762,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>71</v>
@@ -1773,7 +1773,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>72</v>
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
@@ -1795,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>75</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>76</v>
@@ -1817,7 +1817,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>77</v>
@@ -1828,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>78</v>
@@ -1971,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>92</v>
@@ -1982,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>93</v>
@@ -1993,7 +1993,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>94</v>
@@ -2004,7 +2004,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
@@ -2015,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>97</v>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>99</v>
@@ -2037,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>100</v>
@@ -2048,10 +2048,10 @@
         <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>102</v>
@@ -2070,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>104</v>
@@ -2081,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>105</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>106</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>107</v>
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>108</v>
@@ -2125,7 +2125,7 @@
         <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>109</v>
@@ -2136,7 +2136,7 @@
         <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>110</v>
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>111</v>
@@ -2158,7 +2158,7 @@
         <v>10</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>112</v>
@@ -2169,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>113</v>
@@ -2180,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>115</v>
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>116</v>
@@ -2202,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>117</v>
@@ -2213,7 +2213,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>118</v>
@@ -2224,7 +2224,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>119</v>
@@ -2235,7 +2235,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>120</v>
@@ -2246,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>121</v>
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>123</v>
@@ -2268,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>124</v>
@@ -2279,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>125</v>
@@ -2290,7 +2290,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>126</v>
@@ -2301,7 +2301,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>127</v>
@@ -2312,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>128</v>
@@ -2323,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>129</v>
@@ -2334,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>130</v>
@@ -2345,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>132</v>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>133</v>
@@ -2367,7 +2367,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>134</v>
@@ -2378,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>136</v>
@@ -2389,7 +2389,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>137</v>
@@ -2400,7 +2400,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>138</v>
@@ -2411,7 +2411,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>139</v>
@@ -2422,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>141</v>
@@ -2433,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>143</v>
@@ -2444,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>144</v>
@@ -2455,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>145</v>
@@ -2466,7 +2466,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>146</v>
@@ -2477,7 +2477,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>147</v>
@@ -2488,7 +2488,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>149</v>
@@ -2499,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>151</v>
@@ -2510,7 +2510,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>152</v>
@@ -2521,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>154</v>
@@ -2664,7 +2664,7 @@
         <v>157</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>169</v>
@@ -2675,7 +2675,7 @@
         <v>157</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>170</v>
@@ -2686,7 +2686,7 @@
         <v>157</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>171</v>
@@ -2697,7 +2697,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>172</v>
@@ -2708,7 +2708,7 @@
         <v>157</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>173</v>
@@ -2730,7 +2730,7 @@
         <v>157</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>175</v>
@@ -2763,7 +2763,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>178</v>
@@ -3637,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CFC40-A97F-364F-B08E-FB5B0B48AB75}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C057030B-46CF-CD4D-A491-1E2E1132D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD8A5B-4AC9-2345-9D14-0310C8099D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="queries" sheetId="2" r:id="rId1"/>
-    <sheet name="queries_orig" sheetId="3" r:id="rId2"/>
+    <sheet name="queries" sheetId="4" r:id="rId1"/>
+    <sheet name="queries-manual" sheetId="2" r:id="rId2"/>
+    <sheet name="queries_orig" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$C$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">queries_orig!$A$1:$C$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">queries_orig!$A$1:$C$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'queries-manual'!$A$1:$C$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="259">
   <si>
     <t>db_id</t>
   </si>
@@ -803,6 +805,21 @@
   </si>
   <si>
     <t>SELECT distinct border FROM usa_border_info WHERE state_name IN ( SELECT border FROM usa_border_info WHERE state_name  =  'colorado' );</t>
+  </si>
+  <si>
+    <t>SELECT MAX ( highest_elevation_in_meters ) as highest_elevation_in_meters FROM usa_highlow;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT ( state_name ) as state_name FROM usa_state;</t>
+  </si>
+  <si>
+    <t>SELECT SUM ( area_squared_miles ) as area_squared_miles FROM usa_state;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT ( border ) as border FROM usa_border_info WHERE border IN ( SELECT border FROM usa_border_info WHERE state_name  =  'new mexico' ) AND state_name  =  'colorado';</t>
+  </si>
+  <si>
+    <t>SELECT MAX ( area_squared_miles ) as area_squared_miles FROM usa_state;</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1110,1473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}">
+  <dimension ref="A1:C900"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="104.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="23" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
@@ -3633,7 +5113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42CFC40-A97F-364F-B08E-FB5B0B48AB75}">
   <dimension ref="A1:C998"/>
   <sheetViews>

--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD8A5B-4AC9-2345-9D14-0310C8099D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502CFCC-EDF8-D54D-880F-BCF37E4548AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="queries_orig" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$C$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$N$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">queries_orig!$A$1:$C$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'queries-manual'!$A$1:$C$152</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="272">
   <si>
     <t>db_id</t>
   </si>
@@ -820,13 +820,52 @@
   </si>
   <si>
     <t>SELECT MAX ( area_squared_miles ) as area_squared_miles FROM usa_state;</t>
+  </si>
+  <si>
+    <t>attrs</t>
+  </si>
+  <si>
+    <t>tables</t>
+  </si>
+  <si>
+    <t>numerical conditions</t>
+  </si>
+  <si>
+    <t>categorical conditions</t>
+  </si>
+  <si>
+    <t>aggr</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>group by</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>order by</t>
+  </si>
+  <si>
+    <t>nested</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>tuples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +891,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -889,13 +935,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1111,32 +1167,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}">
-  <dimension ref="A1:C900"/>
+  <dimension ref="A1:P899"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="104.6640625" customWidth="1"/>
+    <col min="2" max="2" width="104.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="23" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1243,41 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1157,578 +1287,2314 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>222</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>250</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>254</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>255</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>216</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>256</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>237</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>227</v>
+      <c r="B24" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>252</v>
+      <c r="B25" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>228</v>
+      <c r="B26" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>253</v>
+      <c r="B27" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>236</v>
+      <c r="B28" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>233</v>
+      <c r="B29" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>217</v>
+      <c r="B30" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>218</v>
+      <c r="B31" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>257</v>
+      <c r="B32" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>238</v>
+      <c r="B33" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>229</v>
+      <c r="B34" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>258</v>
+      <c r="B35" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>220</v>
+      <c r="B36" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>234</v>
+      <c r="B37" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>221</v>
+      <c r="B38" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>243</v>
+      <c r="B39" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>244</v>
+      <c r="B40" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>211</v>
+        <v>157</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>199</v>
+      <c r="B43" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>200</v>
+      <c r="B44" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>201</v>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>202</v>
+      <c r="B46" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>203</v>
+      <c r="B47" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>204</v>
+      <c r="B48" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>246</v>
+      <c r="B49" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="D49">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>206</v>
+      <c r="B50" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>247</v>
+      <c r="B51" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>208</v>
+      <c r="B52" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>248</v>
+      <c r="B53" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2564,9 +4430,8 @@
     <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:N53" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/core/src/test/resources/llm-bench/spider1/queries.xlsx
+++ b/core/src/test/resources/llm-bench/spider1/queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzoveltri/git/galois/core/src/test/resources/llm-bench/spider1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3502CFCC-EDF8-D54D-880F-BCF37E4548AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F53D8AF-0216-7448-B372-F946B56CBEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="queries" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="queries_orig" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$N$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">queries!$A$1:$P$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">queries_orig!$A$1:$C$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'queries-manual'!$A$1:$C$152</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="274">
   <si>
     <t>db_id</t>
   </si>
@@ -859,6 +859,12 @@
   </si>
   <si>
     <t>tuples</t>
+  </si>
+  <si>
+    <t>attr numerical</t>
+  </si>
+  <si>
+    <t>attr categorical</t>
   </si>
 </sst>
 </file>
@@ -1167,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}">
-  <dimension ref="A1:P899"/>
+  <dimension ref="A1:R899"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1180,10 +1186,10 @@
     <col min="2" max="2" width="104.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="43.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="10.6640625" customWidth="1"/>
+    <col min="5" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1203,37 +1209,43 @@
         <v>260</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1252,17 +1264,17 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1276,8 +1288,14 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1296,18 +1314,18 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -1320,8 +1338,14 @@
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1341,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1364,8 +1388,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1408,8 +1438,14 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1429,16 +1465,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1452,8 +1488,14 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1496,8 +1538,14 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,17 +1564,17 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="7">
         <v>0</v>
@@ -1540,8 +1588,14 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1560,14 +1614,14 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1584,8 +1638,14 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1604,10 +1664,10 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" s="7">
@@ -1623,16 +1683,22 @@
         <v>0</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
         <v>0</v>
       </c>
       <c r="O10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1651,11 +1717,11 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -1664,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1676,10 +1742,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1722,8 +1794,14 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1742,35 +1820,41 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
         <v>0</v>
       </c>
       <c r="O13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1789,35 +1873,41 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1836,20 +1926,20 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1860,8 +1950,14 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1880,20 +1976,20 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7">
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7">
         <v>0</v>
@@ -1904,8 +2000,14 @@
       <c r="N16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1948,8 +2050,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1968,23 +2076,23 @@
       <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>2</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
       <c r="K18" s="7">
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1992,9 +2100,15 @@
       <c r="N18" s="7">
         <v>0</v>
       </c>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -2013,35 +2127,41 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
       </c>
       <c r="K19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="7">
         <v>0</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
         <v>0</v>
       </c>
       <c r="O19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -2060,20 +2180,20 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7">
         <v>0</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
@@ -2084,8 +2204,14 @@
       <c r="N20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2104,35 +2230,41 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="7">
         <v>0</v>
       </c>
       <c r="K21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="7">
         <v>0</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
         <v>0</v>
       </c>
       <c r="O21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2151,20 +2283,20 @@
       <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="G22" s="7">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
         <v>4</v>
       </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
         <v>0</v>
@@ -2176,10 +2308,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -2198,20 +2336,20 @@
       <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
         <v>4</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
       <c r="K23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7">
         <v>0</v>
@@ -2223,10 +2361,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -2245,20 +2389,20 @@
       <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
         <v>2</v>
       </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
       <c r="K24" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -2270,10 +2414,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -2292,11 +2442,11 @@
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" s="7">
         <v>1</v>
@@ -2305,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
         <v>0</v>
@@ -2317,10 +2467,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -2339,35 +2495,41 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
         <v>2</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
       <c r="K26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="7">
         <v>0</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
         <v>0</v>
       </c>
       <c r="O26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -2386,11 +2548,11 @@
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <v>1</v>
@@ -2399,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
@@ -2411,10 +2573,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
@@ -2433,11 +2601,11 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
       </c>
       <c r="I28" s="7">
         <v>1</v>
@@ -2446,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7">
         <v>0</v>
@@ -2458,10 +2626,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
@@ -2480,11 +2654,11 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
@@ -2493,20 +2667,26 @@
         <v>0</v>
       </c>
       <c r="K29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
         <v>0</v>
       </c>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>10</v>
       </c>
@@ -2525,18 +2705,18 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
         <v>3</v>
       </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
       <c r="K30" s="7">
         <v>0</v>
       </c>
@@ -2550,10 +2730,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -2572,20 +2758,20 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
         <v>3</v>
       </c>
-      <c r="I31" s="7">
-        <v>1</v>
-      </c>
-      <c r="J31" s="7">
-        <v>0</v>
-      </c>
       <c r="K31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7">
         <v>0</v>
@@ -2597,10 +2783,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -2619,17 +2811,17 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
       </c>
       <c r="J32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="7">
         <v>0</v>
@@ -2643,8 +2835,14 @@
       <c r="N32" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
@@ -2663,10 +2861,10 @@
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="7">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
       <c r="I33" s="7">
@@ -2676,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7">
         <v>0</v>
@@ -2688,10 +2886,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>10</v>
       </c>
@@ -2710,20 +2914,20 @@
       <c r="F34" s="7">
         <v>1</v>
       </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
       </c>
       <c r="K34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
@@ -2734,9 +2938,15 @@
       <c r="N34" s="7">
         <v>0</v>
       </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -2765,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2779,8 +2989,14 @@
       <c r="N35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>10</v>
       </c>
@@ -2800,16 +3016,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2823,8 +3039,14 @@
       <c r="N36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
@@ -2843,18 +3065,18 @@
       <c r="F37" s="7">
         <v>2</v>
       </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
         <v>2</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
       <c r="K37" s="7">
         <v>0</v>
       </c>
@@ -2868,10 +3090,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2890,10 +3118,10 @@
       <c r="F38" s="7">
         <v>2</v>
       </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" s="7">
@@ -2903,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -2915,10 +3143,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
@@ -2937,10 +3171,10 @@
       <c r="F39" s="7">
         <v>2</v>
       </c>
-      <c r="G39" s="7">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
       <c r="I39" s="7">
@@ -2950,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="K39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -2962,10 +3196,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
@@ -2984,10 +3224,10 @@
       <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="G40" s="7">
-        <v>1</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" s="7">
@@ -2997,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3009,10 +3249,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>155</v>
       </c>
@@ -3041,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3055,8 +3301,14 @@
       <c r="N41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>157</v>
       </c>
@@ -3076,16 +3328,16 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -3099,8 +3351,14 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>157</v>
       </c>
@@ -3120,16 +3378,16 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -3143,8 +3401,14 @@
       <c r="N43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>157</v>
       </c>
@@ -3173,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3187,8 +3451,14 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>157</v>
       </c>
@@ -3208,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3231,8 +3501,14 @@
       <c r="N45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>157</v>
       </c>
@@ -3261,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3275,8 +3551,14 @@
       <c r="N46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>157</v>
       </c>
@@ -3305,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3319,8 +3601,14 @@
       <c r="N47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>157</v>
       </c>
@@ -3343,28 +3631,34 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>4</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
         <v>2</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>157</v>
       </c>
@@ -3387,28 +3681,34 @@
         <v>0</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>2</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>157</v>
       </c>
@@ -3431,28 +3731,34 @@
         <v>0</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>4</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>2</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>157</v>
       </c>
@@ -3475,28 +3781,34 @@
         <v>0</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>3</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>2</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -3519,19 +3831,19 @@
         <v>0</v>
       </c>
       <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
         <v>2</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
       <c r="K52">
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -3539,8 +3851,14 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>157</v>
       </c>
@@ -3563,38 +3881,44 @@
         <v>1</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>3</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>2</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4431,7 +4755,7 @@
     <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:N53" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
+  <autoFilter ref="A1:P53" xr:uid="{C02E9CF9-12E6-3744-87F0-C6B40749FBFD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4441,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C998"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
